--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H2">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>831.993311049466</v>
+        <v>980.3090908839806</v>
       </c>
       <c r="R2">
-        <v>7487.939799445195</v>
+        <v>8822.781817955825</v>
       </c>
       <c r="S2">
-        <v>0.03160765725194128</v>
+        <v>0.03965418632691172</v>
       </c>
       <c r="T2">
-        <v>0.03160765725194128</v>
+        <v>0.03965418632691172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H3">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>1034.658507947866</v>
+        <v>1022.618400139467</v>
       </c>
       <c r="R3">
-        <v>9311.926571530797</v>
+        <v>9203.565601255201</v>
       </c>
       <c r="S3">
-        <v>0.03930696444033883</v>
+        <v>0.04136562738992083</v>
       </c>
       <c r="T3">
-        <v>0.03930696444033883</v>
+        <v>0.04136562738992084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H4">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>775.2331163330223</v>
+        <v>479.2248163805613</v>
       </c>
       <c r="R4">
-        <v>6977.098046997202</v>
+        <v>4313.023347425052</v>
       </c>
       <c r="S4">
-        <v>0.02945132167048354</v>
+        <v>0.01938497800127395</v>
       </c>
       <c r="T4">
-        <v>0.02945132167048354</v>
+        <v>0.01938497800127395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H5">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>125.537622864644</v>
+        <v>124.208443169142</v>
       </c>
       <c r="R5">
-        <v>1129.838605781796</v>
+        <v>1117.875988522278</v>
       </c>
       <c r="S5">
-        <v>0.00476920920280478</v>
+        <v>0.005024318140682936</v>
       </c>
       <c r="T5">
-        <v>0.004769209202804781</v>
+        <v>0.005024318140682937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H6">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>666.8372933273273</v>
+        <v>354.217669378902</v>
       </c>
       <c r="R6">
-        <v>6001.535639945946</v>
+        <v>3187.959024410118</v>
       </c>
       <c r="S6">
-        <v>0.02533333421120407</v>
+        <v>0.01432835173360415</v>
       </c>
       <c r="T6">
-        <v>0.02533333421120408</v>
+        <v>0.01432835173360415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J7">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>1032.342066625571</v>
+        <v>1230.694473846655</v>
       </c>
       <c r="R7">
-        <v>9291.078599630142</v>
+        <v>11076.2502646199</v>
       </c>
       <c r="S7">
-        <v>0.03921896219033638</v>
+        <v>0.04978244966942938</v>
       </c>
       <c r="T7">
-        <v>0.03921896219033638</v>
+        <v>0.04978244966942939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J8">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
         <v>1283.810203953822</v>
@@ -948,10 +948,10 @@
         <v>11554.2918355844</v>
       </c>
       <c r="S8">
-        <v>0.04877230665704794</v>
+        <v>0.05193101799154936</v>
       </c>
       <c r="T8">
-        <v>0.04877230665704795</v>
+        <v>0.05193101799154938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J9">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>961.9136918568714</v>
+        <v>601.6258940513437</v>
       </c>
       <c r="R9">
-        <v>8657.223226711842</v>
+        <v>5414.633046462093</v>
       </c>
       <c r="S9">
-        <v>0.03654336864777245</v>
+        <v>0.0243361869472149</v>
       </c>
       <c r="T9">
-        <v>0.03654336864777245</v>
+        <v>0.0243361869472149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J10">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>155.7678016231586</v>
+        <v>155.933109296699</v>
       </c>
       <c r="R10">
-        <v>1401.910214608428</v>
+        <v>1403.397983670291</v>
       </c>
       <c r="S10">
-        <v>0.005917662100411354</v>
+        <v>0.006307603008159591</v>
       </c>
       <c r="T10">
-        <v>0.005917662100411355</v>
+        <v>0.006307603008159592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J11">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>827.415533699653</v>
+        <v>444.690080197419</v>
       </c>
       <c r="R11">
-        <v>7446.739803296877</v>
+        <v>4002.210721776771</v>
       </c>
       <c r="S11">
-        <v>0.03143374621740895</v>
+        <v>0.0179880238404978</v>
       </c>
       <c r="T11">
-        <v>0.03143374621740895</v>
+        <v>0.0179880238404978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H12">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>1870.862627187218</v>
+        <v>3137.861762987268</v>
       </c>
       <c r="R12">
-        <v>16837.76364468496</v>
+        <v>28240.75586688541</v>
       </c>
       <c r="S12">
-        <v>0.07107459146637803</v>
+        <v>0.126928696443472</v>
       </c>
       <c r="T12">
-        <v>0.07107459146637803</v>
+        <v>0.126928696443472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H13">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>2326.585933700932</v>
+        <v>3273.289216395333</v>
       </c>
       <c r="R13">
-        <v>20939.27340330839</v>
+        <v>29459.602947558</v>
       </c>
       <c r="S13">
-        <v>0.08838764661082071</v>
+        <v>0.1324068313716915</v>
       </c>
       <c r="T13">
-        <v>0.08838764661082074</v>
+        <v>0.1324068313716915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H14">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>1743.228756101264</v>
+        <v>1533.946018841036</v>
       </c>
       <c r="R14">
-        <v>15689.05880491137</v>
+        <v>13805.51416956933</v>
       </c>
       <c r="S14">
-        <v>0.06622574521070969</v>
+        <v>0.06204918613138292</v>
       </c>
       <c r="T14">
-        <v>0.0662257452107097</v>
+        <v>0.06204918613138292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H15">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>282.2903066698119</v>
+        <v>397.5775886248049</v>
       </c>
       <c r="R15">
-        <v>2540.612760028308</v>
+        <v>3578.198297623244</v>
       </c>
       <c r="S15">
-        <v>0.010724287251192</v>
+        <v>0.01608229070334933</v>
       </c>
       <c r="T15">
-        <v>0.010724287251192</v>
+        <v>0.01608229070334933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H16">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>1499.484375574028</v>
+        <v>1133.811866945205</v>
       </c>
       <c r="R16">
-        <v>13495.35938016626</v>
+        <v>10204.30680250684</v>
       </c>
       <c r="S16">
-        <v>0.05696582841273252</v>
+        <v>0.04586348066094782</v>
       </c>
       <c r="T16">
-        <v>0.05696582841273252</v>
+        <v>0.04586348066094783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H17">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>302.9329291254693</v>
+        <v>362.9777974191864</v>
       </c>
       <c r="R17">
-        <v>2726.396362129224</v>
+        <v>3266.800176772678</v>
       </c>
       <c r="S17">
-        <v>0.01150850621869383</v>
+        <v>0.01468270502154908</v>
       </c>
       <c r="T17">
-        <v>0.01150850621869384</v>
+        <v>0.01468270502154908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H18">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>376.7243417640888</v>
+        <v>378.6436114228445</v>
       </c>
       <c r="R18">
-        <v>3390.519075876799</v>
+        <v>3407.7925028056</v>
       </c>
       <c r="S18">
-        <v>0.01431186250514766</v>
+        <v>0.01531639812226655</v>
       </c>
       <c r="T18">
-        <v>0.01431186250514766</v>
+        <v>0.01531639812226655</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H19">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>282.2662581140218</v>
+        <v>177.4419618628395</v>
       </c>
       <c r="R19">
-        <v>2540.396323026196</v>
+        <v>1596.977656765556</v>
       </c>
       <c r="S19">
-        <v>0.01072337363986998</v>
+        <v>0.007177651093265796</v>
       </c>
       <c r="T19">
-        <v>0.01072337363986998</v>
+        <v>0.007177651093265796</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H20">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>45.70887686809066</v>
+        <v>45.99050191582599</v>
       </c>
       <c r="R20">
-        <v>411.379891812816</v>
+        <v>413.914517242434</v>
       </c>
       <c r="S20">
-        <v>0.001736492943188938</v>
+        <v>0.001860347873132384</v>
       </c>
       <c r="T20">
-        <v>0.001736492943188938</v>
+        <v>0.001860347873132384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H21">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>242.7987963784684</v>
+        <v>131.155724897106</v>
       </c>
       <c r="R21">
-        <v>2185.189167406216</v>
+        <v>1180.401524073954</v>
       </c>
       <c r="S21">
-        <v>0.009223993793212404</v>
+        <v>0.005305340531139211</v>
       </c>
       <c r="T21">
-        <v>0.009223993793212404</v>
+        <v>0.005305340531139211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H22">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>2338.83665108882</v>
+        <v>2473.944030410345</v>
       </c>
       <c r="R22">
-        <v>21049.52985979938</v>
+        <v>22265.4962736931</v>
       </c>
       <c r="S22">
-        <v>0.0888530547711319</v>
+        <v>0.1000727611898206</v>
       </c>
       <c r="T22">
-        <v>0.0888530547711319</v>
+        <v>0.1000727611898206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H23">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>2908.553719857332</v>
+        <v>2580.717357350534</v>
       </c>
       <c r="R23">
-        <v>26176.98347871599</v>
+        <v>23226.4562161548</v>
       </c>
       <c r="S23">
-        <v>0.1104967646436325</v>
+        <v>0.1043918167209823</v>
       </c>
       <c r="T23">
-        <v>0.1104967646436325</v>
+        <v>0.1043918167209823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H24">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>2179.276685927196</v>
+        <v>1209.389349475589</v>
       </c>
       <c r="R24">
-        <v>19613.49017334477</v>
+        <v>10884.5041452803</v>
       </c>
       <c r="S24">
-        <v>0.08279132732334904</v>
+        <v>0.04892064253188007</v>
       </c>
       <c r="T24">
-        <v>0.08279132732334905</v>
+        <v>0.04892064253188007</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H25">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>352.9018677758799</v>
+        <v>313.456989598833</v>
       </c>
       <c r="R25">
-        <v>3176.116809982919</v>
+        <v>2821.112906389497</v>
       </c>
       <c r="S25">
-        <v>0.01340684009365398</v>
+        <v>0.01267955381278416</v>
       </c>
       <c r="T25">
-        <v>0.01340684009365399</v>
+        <v>0.01267955381278416</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H26">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>1874.562549042046</v>
+        <v>893.9167215470731</v>
       </c>
       <c r="R26">
-        <v>16871.06294137842</v>
+        <v>8045.250493923658</v>
       </c>
       <c r="S26">
-        <v>0.07121515252653711</v>
+        <v>0.03615955474309163</v>
       </c>
       <c r="T26">
-        <v>0.07121515252653712</v>
+        <v>0.03615955474309164</v>
       </c>
     </row>
   </sheetData>
